--- a/courses_master.xlsx
+++ b/courses_master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\MA1PEPF00008833\EXCELCNV\6cd75419-4816-46ec-8cf9-a60548bf636c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B2DC9FE-A2A4-48CA-B658-7DC52CF04D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA183D9F-4859-46C5-9A34-790F41D63572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" firstSheet="2" activeTab="2" xr2:uid="{C55A5303-D127-46A6-991B-CFC95A3D8D87}"/>
   </bookViews>
@@ -696,10 +696,10 @@
     <t>** No Exam **</t>
   </si>
   <si>
+    <t>On System</t>
+  </si>
+  <si>
     <t>Lab Exam</t>
-  </si>
-  <si>
-    <t>On System</t>
   </si>
   <si>
     <t>Lunch Time</t>
@@ -9687,8 +9687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DF5CD9-6F61-4030-AF20-D5F906FB3D60}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11146,7 +11146,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F24" s="15">
         <v>2.5</v>
@@ -11209,7 +11209,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F25" s="15">
         <v>2.5</v>
@@ -12407,7 +12407,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F44" s="15">
         <v>3</v>
@@ -12470,7 +12470,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F45" s="15">
         <v>3</v>
@@ -12534,7 +12534,7 @@
         <v>Preeti Mudliar</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F46" s="15">
         <v>2</v>
@@ -12597,7 +12597,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F47" s="15">
         <v>3</v>
@@ -12660,7 +12660,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F48" s="15">
         <v>3</v>
@@ -13165,7 +13165,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F56" s="15">
         <v>3</v>
@@ -13292,7 +13292,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F58" s="15">
         <v>3</v>
@@ -13796,7 +13796,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F66" s="15">
         <v>3</v>
@@ -14192,7 +14192,7 @@
         <v>0.4375</v>
       </c>
       <c r="I6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J6">
         <v>1.5</v>
@@ -14230,7 +14230,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J7">
         <v>2</v>
